--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna3-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna3-Ephb1.xlsx
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Efna3</t>
+  </si>
+  <si>
+    <t>Ephb1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Efna3</t>
-  </si>
-  <si>
-    <t>Ephb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -525,19 +525,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06733099999999999</v>
+        <v>0.02551366666666667</v>
       </c>
       <c r="H2">
-        <v>0.134662</v>
+        <v>0.076541</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.875567333333333</v>
+        <v>1.684496</v>
       </c>
       <c r="N2">
-        <v>5.626702</v>
+        <v>5.053488</v>
       </c>
       <c r="O2">
-        <v>0.9147184316015461</v>
+        <v>0.6423607101334534</v>
       </c>
       <c r="P2">
-        <v>0.9397527619538806</v>
+        <v>0.7282461611889918</v>
       </c>
       <c r="Q2">
-        <v>0.1262838241206667</v>
+        <v>0.04297766944533334</v>
       </c>
       <c r="R2">
-        <v>0.7577029447239998</v>
+        <v>0.386799025008</v>
       </c>
       <c r="S2">
-        <v>0.9147184316015461</v>
+        <v>0.6423607101334534</v>
       </c>
       <c r="T2">
-        <v>0.9397527619538806</v>
+        <v>0.7282461611889918</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,19 +587,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06733099999999999</v>
+        <v>0.02551366666666667</v>
       </c>
       <c r="H3">
-        <v>0.134662</v>
+        <v>0.076541</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.163866</v>
+        <v>0.9277985</v>
       </c>
       <c r="N3">
-        <v>0.327732</v>
+        <v>1.855597</v>
       </c>
       <c r="O3">
-        <v>0.07991781891745056</v>
+        <v>0.3538039290807178</v>
       </c>
       <c r="P3">
-        <v>0.05473669161449624</v>
+        <v>0.2674056793968462</v>
       </c>
       <c r="Q3">
-        <v>0.011033261646</v>
+        <v>0.02367154166283333</v>
       </c>
       <c r="R3">
-        <v>0.044133046584</v>
+        <v>0.142029249977</v>
       </c>
       <c r="S3">
-        <v>0.07991781891745056</v>
+        <v>0.3538039290807178</v>
       </c>
       <c r="T3">
-        <v>0.05473669161449624</v>
+        <v>0.2674056793968462</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,13 +655,13 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06733099999999999</v>
+        <v>0.02551366666666667</v>
       </c>
       <c r="H4">
-        <v>0.134662</v>
+        <v>0.076541</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.010998</v>
+        <v>0.01005766666666667</v>
       </c>
       <c r="N4">
-        <v>0.032994</v>
+        <v>0.030173</v>
       </c>
       <c r="O4">
-        <v>0.005363749481003511</v>
+        <v>0.003835360785828855</v>
       </c>
       <c r="P4">
-        <v>0.005510546431623061</v>
+        <v>0.004348159414162149</v>
       </c>
       <c r="Q4">
-        <v>0.0007405063379999999</v>
+        <v>0.0002566079547777778</v>
       </c>
       <c r="R4">
-        <v>0.004443038028</v>
+        <v>0.002309471593</v>
       </c>
       <c r="S4">
-        <v>0.005363749481003511</v>
+        <v>0.003835360785828855</v>
       </c>
       <c r="T4">
-        <v>0.005510546431623061</v>
+        <v>0.004348159414162149</v>
       </c>
     </row>
   </sheetData>
